--- a/tests/Gauges/Subtotal_SummaryAbove.xlsx
+++ b/tests/Gauges/Subtotal_SummaryAbove.xlsx
@@ -10,7 +10,7 @@
     <x:sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="range1">'Лист1'!$C$4:$I$45</x:definedName>
+    <x:definedName name="range1">Лист1!$C$4:$I$45</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -796,7 +796,7 @@
     <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A4" s="21" t="s"/>
       <x:c r="B4" s="21" t="s"/>
-      <x:c r="C4" s="9" t="s"/>
+      <x:c r="C4" s="9"/>
       <x:c r="D4" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -805,7 +805,7 @@
       <x:c r="G4" s="10">
         <x:f>Subtotal(9,G6:G34)</x:f>
       </x:c>
-      <x:c r="H4" s="12" t="s"/>
+      <x:c r="H4" s="12" t="n"/>
       <x:c r="I4" s="13">
         <x:f>Subtotal(9,I6:I34)</x:f>
       </x:c>
@@ -813,7 +813,7 @@
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A5" s="21" t="s"/>
       <x:c r="B5" s="21" t="s"/>
-      <x:c r="C5" s="9" t="s"/>
+      <x:c r="C5" s="9"/>
       <x:c r="D5" s="10" t="s"/>
       <x:c r="E5" s="10" t="s">
         <x:v>9</x:v>
@@ -822,7 +822,7 @@
       <x:c r="G5" s="10">
         <x:f>Subtotal(9,G6:G9)</x:f>
       </x:c>
-      <x:c r="H5" s="12" t="s"/>
+      <x:c r="H5" s="12" t="n"/>
       <x:c r="I5" s="13">
         <x:f>Subtotal(9,I6:I9)</x:f>
       </x:c>
@@ -930,7 +930,7 @@
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A10" s="21" t="s"/>
       <x:c r="B10" s="21" t="s"/>
-      <x:c r="C10" s="9" t="s"/>
+      <x:c r="C10" s="9"/>
       <x:c r="D10" s="10" t="s"/>
       <x:c r="E10" s="10" t="s">
         <x:v>14</x:v>
@@ -939,7 +939,7 @@
       <x:c r="G10" s="10">
         <x:f>Subtotal(9,G11:G15)</x:f>
       </x:c>
-      <x:c r="H10" s="12" t="s"/>
+      <x:c r="H10" s="12" t="n"/>
       <x:c r="I10" s="13">
         <x:f>Subtotal(9,I11:I15)</x:f>
       </x:c>
@@ -1072,7 +1072,7 @@
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A16" s="21" t="s"/>
       <x:c r="B16" s="21" t="s"/>
-      <x:c r="C16" s="9" t="s"/>
+      <x:c r="C16" s="9"/>
       <x:c r="D16" s="10" t="s"/>
       <x:c r="E16" s="10" t="s">
         <x:v>17</x:v>
@@ -1081,7 +1081,7 @@
       <x:c r="G16" s="10">
         <x:f>Subtotal(9,G17:G21)</x:f>
       </x:c>
-      <x:c r="H16" s="12" t="s"/>
+      <x:c r="H16" s="12" t="n"/>
       <x:c r="I16" s="13">
         <x:f>Subtotal(9,I17:I21)</x:f>
       </x:c>
@@ -1214,7 +1214,7 @@
     <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A22" s="21" t="s"/>
       <x:c r="B22" s="21" t="s"/>
-      <x:c r="C22" s="9" t="s"/>
+      <x:c r="C22" s="9"/>
       <x:c r="D22" s="10" t="s"/>
       <x:c r="E22" s="10" t="s">
         <x:v>20</x:v>
@@ -1223,7 +1223,7 @@
       <x:c r="G22" s="10">
         <x:f>Subtotal(9,G23:G26)</x:f>
       </x:c>
-      <x:c r="H22" s="12" t="s"/>
+      <x:c r="H22" s="12" t="n"/>
       <x:c r="I22" s="13">
         <x:f>Subtotal(9,I23:I26)</x:f>
       </x:c>
@@ -1331,7 +1331,7 @@
     <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A27" s="21" t="s"/>
       <x:c r="B27" s="21" t="s"/>
-      <x:c r="C27" s="9" t="s"/>
+      <x:c r="C27" s="9"/>
       <x:c r="D27" s="10" t="s"/>
       <x:c r="E27" s="10" t="s">
         <x:v>23</x:v>
@@ -1340,7 +1340,7 @@
       <x:c r="G27" s="10">
         <x:f>Subtotal(9,G28:G30)</x:f>
       </x:c>
-      <x:c r="H27" s="12" t="s"/>
+      <x:c r="H27" s="12" t="n"/>
       <x:c r="I27" s="13">
         <x:f>Subtotal(9,I28:I30)</x:f>
       </x:c>
@@ -1423,7 +1423,7 @@
     <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A31" s="21" t="s"/>
       <x:c r="B31" s="21" t="s"/>
-      <x:c r="C31" s="9" t="s"/>
+      <x:c r="C31" s="9"/>
       <x:c r="D31" s="10" t="s"/>
       <x:c r="E31" s="10" t="s">
         <x:v>25</x:v>
@@ -1432,7 +1432,7 @@
       <x:c r="G31" s="10">
         <x:f>Subtotal(9,G32:G34)</x:f>
       </x:c>
-      <x:c r="H31" s="12" t="s"/>
+      <x:c r="H31" s="12" t="n"/>
       <x:c r="I31" s="13">
         <x:f>Subtotal(9,I32:I34)</x:f>
       </x:c>
@@ -1515,7 +1515,7 @@
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A35" s="21" t="s"/>
       <x:c r="B35" s="21" t="s"/>
-      <x:c r="C35" s="9" t="s"/>
+      <x:c r="C35" s="9"/>
       <x:c r="D35" s="10" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -1524,7 +1524,7 @@
       <x:c r="G35" s="10">
         <x:f>Subtotal(9,G37:G50)</x:f>
       </x:c>
-      <x:c r="H35" s="12" t="s"/>
+      <x:c r="H35" s="12" t="n"/>
       <x:c r="I35" s="13">
         <x:f>Subtotal(9,I37:I50)</x:f>
       </x:c>
@@ -1532,7 +1532,7 @@
     <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A36" s="21" t="s"/>
       <x:c r="B36" s="21" t="s"/>
-      <x:c r="C36" s="9" t="s"/>
+      <x:c r="C36" s="9"/>
       <x:c r="D36" s="10" t="s"/>
       <x:c r="E36" s="10" t="s">
         <x:v>28</x:v>
@@ -1541,7 +1541,7 @@
       <x:c r="G36" s="10">
         <x:f>Subtotal(9,G37:G37)</x:f>
       </x:c>
-      <x:c r="H36" s="12" t="s"/>
+      <x:c r="H36" s="12" t="n"/>
       <x:c r="I36" s="13">
         <x:f>Subtotal(9,I37:I37)</x:f>
       </x:c>
@@ -1574,7 +1574,7 @@
     <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A38" s="21" t="s"/>
       <x:c r="B38" s="21" t="s"/>
-      <x:c r="C38" s="9" t="s"/>
+      <x:c r="C38" s="9"/>
       <x:c r="D38" s="10" t="s"/>
       <x:c r="E38" s="10" t="s">
         <x:v>31</x:v>
@@ -1583,7 +1583,7 @@
       <x:c r="G38" s="10">
         <x:f>Subtotal(9,G39:G46)</x:f>
       </x:c>
-      <x:c r="H38" s="12" t="s"/>
+      <x:c r="H38" s="12" t="n"/>
       <x:c r="I38" s="13">
         <x:f>Subtotal(9,I39:I46)</x:f>
       </x:c>
@@ -1791,7 +1791,7 @@
     <x:row r="47" spans="1:9" outlineLevel="2">
       <x:c r="A47" s="21" t="s"/>
       <x:c r="B47" s="21" t="s"/>
-      <x:c r="C47" s="9" t="s"/>
+      <x:c r="C47" s="9"/>
       <x:c r="D47" s="10" t="s"/>
       <x:c r="E47" s="10" t="s">
         <x:v>33</x:v>
@@ -1800,7 +1800,7 @@
       <x:c r="G47" s="10">
         <x:f>Subtotal(9,G48:G50)</x:f>
       </x:c>
-      <x:c r="H47" s="12" t="s"/>
+      <x:c r="H47" s="12" t="n"/>
       <x:c r="I47" s="13">
         <x:f>Subtotal(9,I48:I50)</x:f>
       </x:c>
@@ -1883,7 +1883,7 @@
     <x:row r="51" spans="1:9" outlineLevel="1">
       <x:c r="A51" s="21" t="s"/>
       <x:c r="B51" s="21" t="s"/>
-      <x:c r="C51" s="9" t="s"/>
+      <x:c r="C51" s="9"/>
       <x:c r="D51" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -1892,7 +1892,7 @@
       <x:c r="G51" s="10">
         <x:f>Subtotal(9,G53:G59)</x:f>
       </x:c>
-      <x:c r="H51" s="12" t="s"/>
+      <x:c r="H51" s="12" t="n"/>
       <x:c r="I51" s="13">
         <x:f>Subtotal(9,I53:I59)</x:f>
       </x:c>

--- a/tests/Gauges/Subtotal_SummaryAbove.xlsx
+++ b/tests/Gauges/Subtotal_SummaryAbove.xlsx
@@ -40,13 +40,13 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Общий Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Central Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrews Итог</x:t>
+    <x:t>Общий Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Central Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrews Total</x:t>
   </x:si>
   <x:si>
     <x:t>Central</x:t>
@@ -61,7 +61,7 @@
     <x:t>Binder</x:t>
   </x:si>
   <x:si>
-    <x:t>Gill Итог</x:t>
+    <x:t>Gill Total</x:t>
   </x:si>
   <x:si>
     <x:t>Gill</x:t>
@@ -70,7 +70,7 @@
     <x:t>Pen</x:t>
   </x:si>
   <x:si>
-    <x:t>Jardine Итог</x:t>
+    <x:t>Jardine Total</x:t>
   </x:si>
   <x:si>
     <x:t>Jardine</x:t>
@@ -79,7 +79,7 @@
     <x:t>Pen Set</x:t>
   </x:si>
   <x:si>
-    <x:t>Kivell Итог</x:t>
+    <x:t>Kivell Total</x:t>
   </x:si>
   <x:si>
     <x:t>Kivell</x:t>
@@ -88,22 +88,22 @@
     <x:t>Desk</x:t>
   </x:si>
   <x:si>
-    <x:t>Morgan Итог</x:t>
+    <x:t>Morgan Total</x:t>
   </x:si>
   <x:si>
     <x:t>Morgan</x:t>
   </x:si>
   <x:si>
-    <x:t>Smith Итог</x:t>
+    <x:t>Smith Total</x:t>
   </x:si>
   <x:si>
     <x:t>Smith</x:t>
   </x:si>
   <x:si>
-    <x:t>East Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Howard Итог</x:t>
+    <x:t>East Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Howard Total</x:t>
   </x:si>
   <x:si>
     <x:t>East</x:t>
@@ -112,22 +112,22 @@
     <x:t>Howard</x:t>
   </x:si>
   <x:si>
-    <x:t>Jones Итог</x:t>
+    <x:t>Jones Total</x:t>
   </x:si>
   <x:si>
     <x:t>Jones</x:t>
   </x:si>
   <x:si>
-    <x:t>Parent Итог</x:t>
+    <x:t>Parent Total</x:t>
   </x:si>
   <x:si>
     <x:t>Parent</x:t>
   </x:si>
   <x:si>
-    <x:t>West Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sorvino Итог</x:t>
+    <x:t>West Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sorvino Total</x:t>
   </x:si>
   <x:si>
     <x:t>West</x:t>
@@ -136,7 +136,7 @@
     <x:t>Sorvino</x:t>
   </x:si>
   <x:si>
-    <x:t>Thompson Итог</x:t>
+    <x:t>Thompson Total</x:t>
   </x:si>
   <x:si>
     <x:t>Thompson</x:t>
@@ -277,7 +277,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -292,9 +292,6 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -323,9 +320,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -796,7 +790,7 @@
     <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A4" s="21" t="s"/>
       <x:c r="B4" s="21" t="s"/>
-      <x:c r="C4" s="9"/>
+      <x:c r="C4" s="9" t="s"/>
       <x:c r="D4" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -805,7 +799,7 @@
       <x:c r="G4" s="10">
         <x:f>Subtotal(9,G6:G34)</x:f>
       </x:c>
-      <x:c r="H4" s="12" t="n"/>
+      <x:c r="H4" s="12" t="s"/>
       <x:c r="I4" s="13">
         <x:f>Subtotal(9,I6:I34)</x:f>
       </x:c>
@@ -813,7 +807,7 @@
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A5" s="21" t="s"/>
       <x:c r="B5" s="21" t="s"/>
-      <x:c r="C5" s="9"/>
+      <x:c r="C5" s="9" t="s"/>
       <x:c r="D5" s="10" t="s"/>
       <x:c r="E5" s="10" t="s">
         <x:v>9</x:v>
@@ -822,7 +816,7 @@
       <x:c r="G5" s="10">
         <x:f>Subtotal(9,G6:G9)</x:f>
       </x:c>
-      <x:c r="H5" s="12" t="n"/>
+      <x:c r="H5" s="12" t="s"/>
       <x:c r="I5" s="13">
         <x:f>Subtotal(9,I6:I9)</x:f>
       </x:c>
@@ -930,7 +924,7 @@
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A10" s="21" t="s"/>
       <x:c r="B10" s="21" t="s"/>
-      <x:c r="C10" s="9"/>
+      <x:c r="C10" s="9" t="s"/>
       <x:c r="D10" s="10" t="s"/>
       <x:c r="E10" s="10" t="s">
         <x:v>14</x:v>
@@ -939,7 +933,7 @@
       <x:c r="G10" s="10">
         <x:f>Subtotal(9,G11:G15)</x:f>
       </x:c>
-      <x:c r="H10" s="12" t="n"/>
+      <x:c r="H10" s="12" t="s"/>
       <x:c r="I10" s="13">
         <x:f>Subtotal(9,I11:I15)</x:f>
       </x:c>
@@ -1072,7 +1066,7 @@
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A16" s="21" t="s"/>
       <x:c r="B16" s="21" t="s"/>
-      <x:c r="C16" s="9"/>
+      <x:c r="C16" s="9" t="s"/>
       <x:c r="D16" s="10" t="s"/>
       <x:c r="E16" s="10" t="s">
         <x:v>17</x:v>
@@ -1081,7 +1075,7 @@
       <x:c r="G16" s="10">
         <x:f>Subtotal(9,G17:G21)</x:f>
       </x:c>
-      <x:c r="H16" s="12" t="n"/>
+      <x:c r="H16" s="12" t="s"/>
       <x:c r="I16" s="13">
         <x:f>Subtotal(9,I17:I21)</x:f>
       </x:c>
@@ -1214,7 +1208,7 @@
     <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A22" s="21" t="s"/>
       <x:c r="B22" s="21" t="s"/>
-      <x:c r="C22" s="9"/>
+      <x:c r="C22" s="9" t="s"/>
       <x:c r="D22" s="10" t="s"/>
       <x:c r="E22" s="10" t="s">
         <x:v>20</x:v>
@@ -1223,7 +1217,7 @@
       <x:c r="G22" s="10">
         <x:f>Subtotal(9,G23:G26)</x:f>
       </x:c>
-      <x:c r="H22" s="12" t="n"/>
+      <x:c r="H22" s="12" t="s"/>
       <x:c r="I22" s="13">
         <x:f>Subtotal(9,I23:I26)</x:f>
       </x:c>
@@ -1331,7 +1325,7 @@
     <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A27" s="21" t="s"/>
       <x:c r="B27" s="21" t="s"/>
-      <x:c r="C27" s="9"/>
+      <x:c r="C27" s="9" t="s"/>
       <x:c r="D27" s="10" t="s"/>
       <x:c r="E27" s="10" t="s">
         <x:v>23</x:v>
@@ -1340,7 +1334,7 @@
       <x:c r="G27" s="10">
         <x:f>Subtotal(9,G28:G30)</x:f>
       </x:c>
-      <x:c r="H27" s="12" t="n"/>
+      <x:c r="H27" s="12" t="s"/>
       <x:c r="I27" s="13">
         <x:f>Subtotal(9,I28:I30)</x:f>
       </x:c>
@@ -1423,7 +1417,7 @@
     <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A31" s="21" t="s"/>
       <x:c r="B31" s="21" t="s"/>
-      <x:c r="C31" s="9"/>
+      <x:c r="C31" s="9" t="s"/>
       <x:c r="D31" s="10" t="s"/>
       <x:c r="E31" s="10" t="s">
         <x:v>25</x:v>
@@ -1432,7 +1426,7 @@
       <x:c r="G31" s="10">
         <x:f>Subtotal(9,G32:G34)</x:f>
       </x:c>
-      <x:c r="H31" s="12" t="n"/>
+      <x:c r="H31" s="12" t="s"/>
       <x:c r="I31" s="13">
         <x:f>Subtotal(9,I32:I34)</x:f>
       </x:c>
@@ -1515,7 +1509,7 @@
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
       <x:c r="A35" s="21" t="s"/>
       <x:c r="B35" s="21" t="s"/>
-      <x:c r="C35" s="9"/>
+      <x:c r="C35" s="9" t="s"/>
       <x:c r="D35" s="10" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -1524,7 +1518,7 @@
       <x:c r="G35" s="10">
         <x:f>Subtotal(9,G37:G50)</x:f>
       </x:c>
-      <x:c r="H35" s="12" t="n"/>
+      <x:c r="H35" s="12" t="s"/>
       <x:c r="I35" s="13">
         <x:f>Subtotal(9,I37:I50)</x:f>
       </x:c>
@@ -1532,7 +1526,7 @@
     <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A36" s="21" t="s"/>
       <x:c r="B36" s="21" t="s"/>
-      <x:c r="C36" s="9"/>
+      <x:c r="C36" s="9" t="s"/>
       <x:c r="D36" s="10" t="s"/>
       <x:c r="E36" s="10" t="s">
         <x:v>28</x:v>
@@ -1541,7 +1535,7 @@
       <x:c r="G36" s="10">
         <x:f>Subtotal(9,G37:G37)</x:f>
       </x:c>
-      <x:c r="H36" s="12" t="n"/>
+      <x:c r="H36" s="12" t="s"/>
       <x:c r="I36" s="13">
         <x:f>Subtotal(9,I37:I37)</x:f>
       </x:c>
@@ -1574,7 +1568,7 @@
     <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
       <x:c r="A38" s="21" t="s"/>
       <x:c r="B38" s="21" t="s"/>
-      <x:c r="C38" s="9"/>
+      <x:c r="C38" s="9" t="s"/>
       <x:c r="D38" s="10" t="s"/>
       <x:c r="E38" s="10" t="s">
         <x:v>31</x:v>
@@ -1583,7 +1577,7 @@
       <x:c r="G38" s="10">
         <x:f>Subtotal(9,G39:G46)</x:f>
       </x:c>
-      <x:c r="H38" s="12" t="n"/>
+      <x:c r="H38" s="12" t="s"/>
       <x:c r="I38" s="13">
         <x:f>Subtotal(9,I39:I46)</x:f>
       </x:c>
@@ -1791,7 +1785,7 @@
     <x:row r="47" spans="1:9" outlineLevel="2">
       <x:c r="A47" s="21" t="s"/>
       <x:c r="B47" s="21" t="s"/>
-      <x:c r="C47" s="9"/>
+      <x:c r="C47" s="9" t="s"/>
       <x:c r="D47" s="10" t="s"/>
       <x:c r="E47" s="10" t="s">
         <x:v>33</x:v>
@@ -1800,7 +1794,7 @@
       <x:c r="G47" s="10">
         <x:f>Subtotal(9,G48:G50)</x:f>
       </x:c>
-      <x:c r="H47" s="12" t="n"/>
+      <x:c r="H47" s="12" t="s"/>
       <x:c r="I47" s="13">
         <x:f>Subtotal(9,I48:I50)</x:f>
       </x:c>
@@ -1883,7 +1877,7 @@
     <x:row r="51" spans="1:9" outlineLevel="1">
       <x:c r="A51" s="21" t="s"/>
       <x:c r="B51" s="21" t="s"/>
-      <x:c r="C51" s="9"/>
+      <x:c r="C51" s="9" t="s"/>
       <x:c r="D51" s="10" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -1892,7 +1886,7 @@
       <x:c r="G51" s="10">
         <x:f>Subtotal(9,G53:G59)</x:f>
       </x:c>
-      <x:c r="H51" s="12" t="n"/>
+      <x:c r="H51" s="12" t="s"/>
       <x:c r="I51" s="13">
         <x:f>Subtotal(9,I53:I59)</x:f>
       </x:c>

--- a/tests/Gauges/Subtotal_SummaryAbove.xlsx
+++ b/tests/Gauges/Subtotal_SummaryAbove.xlsx
@@ -40,7 +40,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Общий Total</x:t>
+    <x:t>Grand Total</x:t>
   </x:si>
   <x:si>
     <x:t>Central Total</x:t>

--- a/tests/Gauges/Subtotal_SummaryAbove.xlsx
+++ b/tests/Gauges/Subtotal_SummaryAbove.xlsx
@@ -277,15 +277,27 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="18">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -298,38 +310,23 @@
     <x:xf numFmtId="165" fontId="4" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="28">
+  <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment vertical="center"/>
@@ -387,14 +384,6 @@
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
@@ -413,10 +402,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -719,60 +704,60 @@
   <x:dimension ref="A1:I47"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <x:selection activeCell="A28" sqref="A28 A29:XFD29"/>
+      <x:selection activeCell="A28" sqref="A28 28:28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="10.5" outlineLevelCol="3"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="20" customWidth="1"/>
-    <x:col min="3" max="3" width="12" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="8.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="12" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="9" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="6.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="8" max="8" width="10.664062" style="20" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="11" style="20" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="8.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="12" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="9" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="6.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="10.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="11" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A1" s="21" t="s"/>
-      <x:c r="B1" s="21" t="s"/>
-      <x:c r="C1" s="21" t="s"/>
-      <x:c r="D1" s="21" t="s"/>
-      <x:c r="E1" s="21" t="s"/>
-      <x:c r="F1" s="21" t="s"/>
-      <x:c r="G1" s="22" t="s"/>
-      <x:c r="H1" s="21" t="s"/>
-      <x:c r="I1" s="21" t="s"/>
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s"/>
+      <x:c r="C1" s="1" t="s"/>
+      <x:c r="D1" s="1" t="s"/>
+      <x:c r="E1" s="1" t="s"/>
+      <x:c r="F1" s="1" t="s"/>
+      <x:c r="G1" s="20" t="s"/>
+      <x:c r="H1" s="1" t="s"/>
+      <x:c r="I1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A2" s="21" t="s"/>
-      <x:c r="B2" s="21" t="s"/>
-      <x:c r="C2" s="23" t="s">
+      <x:c r="A2" s="1" t="s"/>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C2" s="21" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="24" t="s">
+      <x:c r="D2" s="22" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E2" s="24" t="s">
+      <x:c r="E2" s="22" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F2" s="25" t="s">
+      <x:c r="F2" s="23" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="25" t="s">
+      <x:c r="G2" s="23" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H2" s="25" t="s">
+      <x:c r="H2" s="23" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="26" t="s">
+      <x:c r="I2" s="24" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="21" t="s"/>
-      <x:c r="B3" s="21" t="s"/>
+    <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A3" s="1" t="s"/>
+      <x:c r="B3" s="1" t="s"/>
       <x:c r="C3" s="9" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -788,8 +773,8 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <x:c r="A4" s="21" t="s"/>
-      <x:c r="B4" s="21" t="s"/>
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="1" t="s"/>
       <x:c r="C4" s="9" t="s"/>
       <x:c r="D4" s="10" t="s">
         <x:v>8</x:v>
@@ -805,8 +790,8 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A5" s="21" t="s"/>
-      <x:c r="B5" s="21" t="s"/>
+      <x:c r="A5" s="1" t="s"/>
+      <x:c r="B5" s="1" t="s"/>
       <x:c r="C5" s="9" t="s"/>
       <x:c r="D5" s="10" t="s"/>
       <x:c r="E5" s="10" t="s">
@@ -822,8 +807,8 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A6" s="21" t="s"/>
-      <x:c r="B6" s="21" t="s"/>
+      <x:c r="A6" s="1" t="s"/>
+      <x:c r="B6" s="1" t="s"/>
       <x:c r="C6" s="9">
         <x:v>42112</x:v>
       </x:c>
@@ -847,8 +832,8 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A7" s="21" t="s"/>
-      <x:c r="B7" s="21" t="s"/>
+      <x:c r="A7" s="1" t="s"/>
+      <x:c r="B7" s="1" t="s"/>
       <x:c r="C7" s="9">
         <x:v>42470</x:v>
       </x:c>
@@ -872,8 +857,8 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A8" s="21" t="s"/>
-      <x:c r="B8" s="21" t="s"/>
+      <x:c r="A8" s="1" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
       <x:c r="C8" s="9">
         <x:v>42674</x:v>
       </x:c>
@@ -897,8 +882,8 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A9" s="21" t="s"/>
-      <x:c r="B9" s="21" t="s"/>
+      <x:c r="A9" s="1" t="s"/>
+      <x:c r="B9" s="1" t="s"/>
       <x:c r="C9" s="9">
         <x:v>42725</x:v>
       </x:c>
@@ -922,8 +907,8 @@
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A10" s="21" t="s"/>
-      <x:c r="B10" s="21" t="s"/>
+      <x:c r="A10" s="1" t="s"/>
+      <x:c r="B10" s="1" t="s"/>
       <x:c r="C10" s="9" t="s"/>
       <x:c r="D10" s="10" t="s"/>
       <x:c r="E10" s="10" t="s">
@@ -939,8 +924,8 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A11" s="21" t="s"/>
-      <x:c r="B11" s="21" t="s"/>
+      <x:c r="A11" s="1" t="s"/>
+      <x:c r="B11" s="1" t="s"/>
       <x:c r="C11" s="9">
         <x:v>42061</x:v>
       </x:c>
@@ -964,8 +949,8 @@
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A12" s="21" t="s"/>
-      <x:c r="B12" s="21" t="s"/>
+      <x:c r="A12" s="1" t="s"/>
+      <x:c r="B12" s="1" t="s"/>
       <x:c r="C12" s="9">
         <x:v>42384</x:v>
       </x:c>
@@ -989,8 +974,8 @@
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A13" s="21" t="s"/>
-      <x:c r="B13" s="21" t="s"/>
+      <x:c r="A13" s="1" t="s"/>
+      <x:c r="B13" s="1" t="s"/>
       <x:c r="C13" s="9">
         <x:v>42504</x:v>
       </x:c>
@@ -1014,8 +999,8 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A14" s="21" t="s"/>
-      <x:c r="B14" s="21" t="s"/>
+      <x:c r="A14" s="1" t="s"/>
+      <x:c r="B14" s="1" t="s"/>
       <x:c r="C14" s="9">
         <x:v>42521</x:v>
       </x:c>
@@ -1039,8 +1024,8 @@
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A15" s="21" t="s"/>
-      <x:c r="B15" s="21" t="s"/>
+      <x:c r="A15" s="1" t="s"/>
+      <x:c r="B15" s="1" t="s"/>
       <x:c r="C15" s="9">
         <x:v>42623</x:v>
       </x:c>
@@ -1064,8 +1049,8 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A16" s="21" t="s"/>
-      <x:c r="B16" s="21" t="s"/>
+      <x:c r="A16" s="1" t="s"/>
+      <x:c r="B16" s="1" t="s"/>
       <x:c r="C16" s="9" t="s"/>
       <x:c r="D16" s="10" t="s"/>
       <x:c r="E16" s="10" t="s">
@@ -1081,8 +1066,8 @@
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A17" s="21" t="s"/>
-      <x:c r="B17" s="21" t="s"/>
+      <x:c r="A17" s="1" t="s"/>
+      <x:c r="B17" s="1" t="s"/>
       <x:c r="C17" s="9">
         <x:v>42044</x:v>
       </x:c>
@@ -1106,8 +1091,8 @@
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A18" s="21" t="s"/>
-      <x:c r="B18" s="21" t="s"/>
+      <x:c r="A18" s="1" t="s"/>
+      <x:c r="B18" s="1" t="s"/>
       <x:c r="C18" s="9">
         <x:v>42129</x:v>
       </x:c>
@@ -1131,8 +1116,8 @@
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A19" s="21" t="s"/>
-      <x:c r="B19" s="21" t="s"/>
+      <x:c r="A19" s="1" t="s"/>
+      <x:c r="B19" s="1" t="s"/>
       <x:c r="C19" s="9">
         <x:v>42453</x:v>
       </x:c>
@@ -1156,8 +1141,8 @@
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A20" s="21" t="s"/>
-      <x:c r="B20" s="21" t="s"/>
+      <x:c r="A20" s="1" t="s"/>
+      <x:c r="B20" s="1" t="s"/>
       <x:c r="C20" s="9">
         <x:v>42691</x:v>
       </x:c>
@@ -1181,8 +1166,8 @@
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A21" s="21" t="s"/>
-      <x:c r="B21" s="21" t="s"/>
+      <x:c r="A21" s="1" t="s"/>
+      <x:c r="B21" s="1" t="s"/>
       <x:c r="C21" s="9">
         <x:v>42708</x:v>
       </x:c>
@@ -1206,8 +1191,8 @@
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A22" s="21" t="s"/>
-      <x:c r="B22" s="21" t="s"/>
+      <x:c r="A22" s="1" t="s"/>
+      <x:c r="B22" s="1" t="s"/>
       <x:c r="C22" s="9" t="s"/>
       <x:c r="D22" s="10" t="s"/>
       <x:c r="E22" s="10" t="s">
@@ -1223,8 +1208,8 @@
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A23" s="21" t="s"/>
-      <x:c r="B23" s="21" t="s"/>
+      <x:c r="A23" s="1" t="s"/>
+      <x:c r="B23" s="1" t="s"/>
       <x:c r="C23" s="9">
         <x:v>42027</x:v>
       </x:c>
@@ -1248,8 +1233,8 @@
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A24" s="21" t="s"/>
-      <x:c r="B24" s="21" t="s"/>
+      <x:c r="A24" s="1" t="s"/>
+      <x:c r="B24" s="1" t="s"/>
       <x:c r="C24" s="9">
         <x:v>42333</x:v>
       </x:c>
@@ -1273,8 +1258,8 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A25" s="21" t="s"/>
-      <x:c r="B25" s="21" t="s"/>
+      <x:c r="A25" s="1" t="s"/>
+      <x:c r="B25" s="1" t="s"/>
       <x:c r="C25" s="9">
         <x:v>42538</x:v>
       </x:c>
@@ -1298,8 +1283,8 @@
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A26" s="21" t="s"/>
-      <x:c r="B26" s="21" t="s"/>
+      <x:c r="A26" s="1" t="s"/>
+      <x:c r="B26" s="1" t="s"/>
       <x:c r="C26" s="9">
         <x:v>42589</x:v>
       </x:c>
@@ -1323,8 +1308,8 @@
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A27" s="21" t="s"/>
-      <x:c r="B27" s="21" t="s"/>
+      <x:c r="A27" s="1" t="s"/>
+      <x:c r="B27" s="1" t="s"/>
       <x:c r="C27" s="9" t="s"/>
       <x:c r="D27" s="10" t="s"/>
       <x:c r="E27" s="10" t="s">
@@ -1340,8 +1325,8 @@
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A28" s="21" t="s"/>
-      <x:c r="B28" s="21" t="s"/>
+      <x:c r="A28" s="1" t="s"/>
+      <x:c r="B28" s="1" t="s"/>
       <x:c r="C28" s="9">
         <x:v>42180</x:v>
       </x:c>
@@ -1365,8 +1350,8 @@
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A29" s="21" t="s"/>
-      <x:c r="B29" s="21" t="s"/>
+      <x:c r="A29" s="1" t="s"/>
+      <x:c r="B29" s="1" t="s"/>
       <x:c r="C29" s="9">
         <x:v>42282</x:v>
       </x:c>
@@ -1390,8 +1375,8 @@
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A30" s="21" t="s"/>
-      <x:c r="B30" s="21" t="s"/>
+      <x:c r="A30" s="1" t="s"/>
+      <x:c r="B30" s="1" t="s"/>
       <x:c r="C30" s="9">
         <x:v>42572</x:v>
       </x:c>
@@ -1415,8 +1400,8 @@
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A31" s="21" t="s"/>
-      <x:c r="B31" s="21" t="s"/>
+      <x:c r="A31" s="1" t="s"/>
+      <x:c r="B31" s="1" t="s"/>
       <x:c r="C31" s="9" t="s"/>
       <x:c r="D31" s="10" t="s"/>
       <x:c r="E31" s="10" t="s">
@@ -1432,8 +1417,8 @@
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A32" s="21" t="s"/>
-      <x:c r="B32" s="21" t="s"/>
+      <x:c r="A32" s="1" t="s"/>
+      <x:c r="B32" s="1" t="s"/>
       <x:c r="C32" s="9">
         <x:v>42248</x:v>
       </x:c>
@@ -1457,8 +1442,8 @@
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A33" s="21" t="s"/>
-      <x:c r="B33" s="21" t="s"/>
+      <x:c r="A33" s="1" t="s"/>
+      <x:c r="B33" s="1" t="s"/>
       <x:c r="C33" s="9">
         <x:v>42350</x:v>
       </x:c>
@@ -1482,8 +1467,8 @@
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A34" s="21" t="s"/>
-      <x:c r="B34" s="21" t="s"/>
+      <x:c r="A34" s="1" t="s"/>
+      <x:c r="B34" s="1" t="s"/>
       <x:c r="C34" s="9">
         <x:v>42401</x:v>
       </x:c>
@@ -1507,8 +1492,8 @@
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <x:c r="A35" s="21" t="s"/>
-      <x:c r="B35" s="21" t="s"/>
+      <x:c r="A35" s="1" t="s"/>
+      <x:c r="B35" s="1" t="s"/>
       <x:c r="C35" s="9" t="s"/>
       <x:c r="D35" s="10" t="s">
         <x:v>27</x:v>
@@ -1524,8 +1509,8 @@
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A36" s="21" t="s"/>
-      <x:c r="B36" s="21" t="s"/>
+      <x:c r="A36" s="1" t="s"/>
+      <x:c r="B36" s="1" t="s"/>
       <x:c r="C36" s="9" t="s"/>
       <x:c r="D36" s="10" t="s"/>
       <x:c r="E36" s="10" t="s">
@@ -1541,8 +1526,8 @@
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A37" s="21" t="s"/>
-      <x:c r="B37" s="21" t="s"/>
+      <x:c r="A37" s="1" t="s"/>
+      <x:c r="B37" s="1" t="s"/>
       <x:c r="C37" s="9">
         <x:v>42197</x:v>
       </x:c>
@@ -1566,8 +1551,8 @@
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="2">
-      <x:c r="A38" s="21" t="s"/>
-      <x:c r="B38" s="21" t="s"/>
+      <x:c r="A38" s="1" t="s"/>
+      <x:c r="B38" s="1" t="s"/>
       <x:c r="C38" s="9" t="s"/>
       <x:c r="D38" s="10" t="s"/>
       <x:c r="E38" s="10" t="s">
@@ -1583,8 +1568,8 @@
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A39" s="21" t="s"/>
-      <x:c r="B39" s="21" t="s"/>
+      <x:c r="A39" s="1" t="s"/>
+      <x:c r="B39" s="1" t="s"/>
       <x:c r="C39" s="9">
         <x:v>42010</x:v>
       </x:c>
@@ -1608,8 +1593,8 @@
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A40" s="21" t="s"/>
-      <x:c r="B40" s="21" t="s"/>
+      <x:c r="A40" s="1" t="s"/>
+      <x:c r="B40" s="1" t="s"/>
       <x:c r="C40" s="9">
         <x:v>42095</x:v>
       </x:c>
@@ -1633,8 +1618,8 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A41" s="21" t="s"/>
-      <x:c r="B41" s="21" t="s"/>
+      <x:c r="A41" s="1" t="s"/>
+      <x:c r="B41" s="1" t="s"/>
       <x:c r="C41" s="9">
         <x:v>42163</x:v>
       </x:c>
@@ -1658,8 +1643,8 @@
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A42" s="21" t="s"/>
-      <x:c r="B42" s="21" t="s"/>
+      <x:c r="A42" s="1" t="s"/>
+      <x:c r="B42" s="1" t="s"/>
       <x:c r="C42" s="9">
         <x:v>42231</x:v>
       </x:c>
@@ -1683,8 +1668,8 @@
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A43" s="21" t="s"/>
-      <x:c r="B43" s="21" t="s"/>
+      <x:c r="A43" s="1" t="s"/>
+      <x:c r="B43" s="1" t="s"/>
       <x:c r="C43" s="9">
         <x:v>42265</x:v>
       </x:c>
@@ -1708,8 +1693,8 @@
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A44" s="21" t="s"/>
-      <x:c r="B44" s="21" t="s"/>
+      <x:c r="A44" s="1" t="s"/>
+      <x:c r="B44" s="1" t="s"/>
       <x:c r="C44" s="9">
         <x:v>42299</x:v>
       </x:c>
@@ -1732,9 +1717,7 @@
         <x:f>H44*G44</x:f>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1" outlineLevel="3">
-      <x:c r="A45" s="21" t="s"/>
-      <x:c r="B45" s="21" t="s"/>
+    <x:row r="45" spans="1:9" outlineLevel="3">
       <x:c r="C45" s="9">
         <x:v>42418</x:v>
       </x:c>
@@ -1758,8 +1741,6 @@
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9" outlineLevel="3">
-      <x:c r="A46" s="21" t="s"/>
-      <x:c r="B46" s="21" t="s"/>
       <x:c r="C46" s="9">
         <x:v>42555</x:v>
       </x:c>
@@ -1783,8 +1764,6 @@
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9" outlineLevel="2">
-      <x:c r="A47" s="21" t="s"/>
-      <x:c r="B47" s="21" t="s"/>
       <x:c r="C47" s="9" t="s"/>
       <x:c r="D47" s="10" t="s"/>
       <x:c r="E47" s="10" t="s">
@@ -1800,8 +1779,6 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9" outlineLevel="3">
-      <x:c r="A48" s="21" t="s"/>
-      <x:c r="B48" s="21" t="s"/>
       <x:c r="C48" s="9">
         <x:v>42214</x:v>
       </x:c>
@@ -1825,8 +1802,6 @@
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9" outlineLevel="3">
-      <x:c r="A49" s="21" t="s"/>
-      <x:c r="B49" s="21" t="s"/>
       <x:c r="C49" s="9">
         <x:v>42316</x:v>
       </x:c>
@@ -1850,8 +1825,6 @@
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9" outlineLevel="3">
-      <x:c r="A50" s="21" t="s"/>
-      <x:c r="B50" s="21" t="s"/>
       <x:c r="C50" s="9">
         <x:v>42367</x:v>
       </x:c>
@@ -1875,8 +1848,6 @@
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9" outlineLevel="1">
-      <x:c r="A51" s="21" t="s"/>
-      <x:c r="B51" s="21" t="s"/>
       <x:c r="C51" s="9" t="s"/>
       <x:c r="D51" s="10" t="s">
         <x:v>35</x:v>
@@ -1892,8 +1863,6 @@
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9" outlineLevel="2">
-      <x:c r="A52" s="21" t="s"/>
-      <x:c r="B52" s="21" t="s"/>
       <x:c r="C52" s="9" t="s"/>
       <x:c r="D52" s="10" t="s"/>
       <x:c r="E52" s="10" t="s">
@@ -1909,8 +1878,6 @@
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9" outlineLevel="3">
-      <x:c r="A53" s="21" t="s"/>
-      <x:c r="B53" s="21" t="s"/>
       <x:c r="C53" s="9">
         <x:v>42078</x:v>
       </x:c>
@@ -1934,8 +1901,6 @@
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9" outlineLevel="3">
-      <x:c r="A54" s="21" t="s"/>
-      <x:c r="B54" s="21" t="s"/>
       <x:c r="C54" s="9">
         <x:v>42436</x:v>
       </x:c>
@@ -1959,8 +1924,6 @@
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9" outlineLevel="3">
-      <x:c r="A55" s="21" t="s"/>
-      <x:c r="B55" s="21" t="s"/>
       <x:c r="C55" s="9">
         <x:v>42606</x:v>
       </x:c>
@@ -1984,8 +1947,6 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9" outlineLevel="3">
-      <x:c r="A56" s="21" t="s"/>
-      <x:c r="B56" s="21" t="s"/>
       <x:c r="C56" s="9">
         <x:v>42640</x:v>
       </x:c>
@@ -2009,8 +1970,6 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9" outlineLevel="2">
-      <x:c r="A57" s="21" t="s"/>
-      <x:c r="B57" s="21" t="s"/>
       <x:c r="C57" s="9" t="s"/>
       <x:c r="D57" s="10" t="s"/>
       <x:c r="E57" s="10" t="s">
@@ -2026,8 +1985,6 @@
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9" outlineLevel="3">
-      <x:c r="A58" s="21" t="s"/>
-      <x:c r="B58" s="21" t="s"/>
       <x:c r="C58" s="9">
         <x:v>42146</x:v>
       </x:c>
@@ -2051,8 +2008,6 @@
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9" outlineLevel="3">
-      <x:c r="A59" s="21" t="s"/>
-      <x:c r="B59" s="21" t="s"/>
       <x:c r="C59" s="14">
         <x:v>42657</x:v>
       </x:c>
@@ -2076,13 +2031,13 @@
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
-      <x:c r="G62" s="20" t="n">
+      <x:c r="G62" s="0" t="n">
         <x:v>2121</x:v>
       </x:c>
-      <x:c r="H62" s="27" t="n">
+      <x:c r="H62" s="19" t="n">
         <x:v>873.27</x:v>
       </x:c>
-      <x:c r="I62" s="27" t="n">
+      <x:c r="I62" s="19" t="n">
         <x:v>19627.88</x:v>
       </x:c>
     </x:row>
